--- a/Document/0.PM/ProductBacklog.xlsx
+++ b/Document/0.PM/ProductBacklog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>TT</t>
   </si>
@@ -106,16 +106,28 @@
   <si>
     <t>Chưa có</t>
   </si>
+  <si>
+    <t>DoanLV4</t>
+  </si>
+  <si>
+    <t>Đã hoàn thành</t>
+  </si>
+  <si>
+    <t>TruongBX</t>
+  </si>
+  <si>
+    <t>DuyOT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -123,7 +135,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -169,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -190,6 +209,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -199,6 +221,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -247,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,7 +307,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -493,18 +518,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="43.625" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="5" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -530,7 +555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -549,9 +574,11 @@
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -570,9 +597,11 @@
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -585,15 +614,17 @@
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
+      <c r="E4" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -612,9 +643,11 @@
       <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -635,7 +668,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -656,7 +689,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -689,7 +722,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -701,7 +734,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/0.PM/ProductBacklog.xlsx
+++ b/Document/0.PM/ProductBacklog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>TT</t>
   </si>
@@ -117,6 +117,21 @@
   </si>
   <si>
     <t>DuyOT</t>
+  </si>
+  <si>
+    <t>Thời gian</t>
+  </si>
+  <si>
+    <t>Xuất/nhập kho</t>
+  </si>
+  <si>
+    <t>Phải cho phép người dùng chọn theo cả tên khi nhập hàng hóa</t>
+  </si>
+  <si>
+    <t>In barcode</t>
+  </si>
+  <si>
+    <t>Bổ sung chức năng cho phép in barcode để dán vào hàng hóa khi nhập kho</t>
   </si>
 </sst>
 </file>
@@ -161,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -184,11 +199,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -212,6 +251,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -530,9 +576,10 @@
     <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="5" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -551,11 +598,14 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -577,8 +627,11 @@
       <c r="G2" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="11">
+        <v>43299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -600,8 +653,11 @@
       <c r="G3" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="11">
+        <v>43299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -623,8 +679,11 @@
       <c r="G4" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="H4" s="11">
+        <v>43292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -646,8 +705,11 @@
       <c r="G5" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="H5" s="11">
+        <v>43299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -667,8 +729,9 @@
         <v>21</v>
       </c>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -688,8 +751,9 @@
         <v>21</v>
       </c>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -709,6 +773,51 @@
         <v>14</v>
       </c>
       <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/0.PM/ProductBacklog.xlsx
+++ b/Document/0.PM/ProductBacklog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>TT</t>
   </si>
@@ -142,7 +142,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -150,14 +150,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -318,7 +318,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,7 +353,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -565,18 +565,18 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.875" customWidth="1"/>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
-    <col min="3" max="3" width="43.625" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -605,7 +605,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -618,8 +618,8 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
+      <c r="E2" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -631,7 +631,7 @@
         <v>43299</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="11">
         <v>43299</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -683,7 +683,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -709,7 +709,7 @@
         <v>43299</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -728,10 +728,12 @@
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -750,10 +752,12 @@
       <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -772,10 +776,12 @@
       <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -794,10 +800,12 @@
       <c r="F9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -816,7 +824,9 @@
       <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="H10" s="7"/>
     </row>
   </sheetData>
@@ -831,7 +841,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -843,7 +853,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/0.PM/ProductBacklog.xlsx
+++ b/Document/0.PM/ProductBacklog.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A67AA2-1450-46A4-9168-E5B63A3CFD34}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -240,12 +241,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -318,7 +313,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,9 +346,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,6 +398,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -561,25 +590,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" customWidth="1"/>
+    <col min="3" max="3" width="43.54296875" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
     <col min="5" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -598,14 +627,14 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -618,7 +647,7 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -627,11 +656,11 @@
       <c r="G2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="9">
         <v>43299</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -644,8 +673,8 @@
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
+      <c r="E3" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
@@ -653,11 +682,11 @@
       <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="9">
         <v>43299</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -670,7 +699,7 @@
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -679,11 +708,11 @@
       <c r="G4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="9">
         <v>43292</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -705,11 +734,11 @@
       <c r="G5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>43299</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -731,9 +760,9 @@
       <c r="G6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -755,47 +784,47 @@
       <c r="G7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>9</v>
+      <c r="E8" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
+      <c r="E9" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>21</v>
@@ -803,16 +832,16 @@
       <c r="G9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -824,10 +853,10 @@
       <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -836,24 +865,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
